--- a/web/import/contacts-dbs-samedi.xlsx
+++ b/web/import/contacts-dbs-samedi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\workspace\entrances\web\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,10 +57,6 @@
 </comments>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
@@ -89,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,11 +108,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -130,6 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A323"/>
+  <dimension ref="A1:A325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326:A330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,6 +2044,16 @@
         <v>659407935</v>
       </c>
     </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="7">
+        <v>694210203</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="7">
+        <v>696245919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
